--- a/data/genotypingkey.xlsx
+++ b/data/genotypingkey.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t xml:space="preserve"> +/+</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -381,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C18" si="0">CONCATENATE(A3, "-", B3)</f>
+        <f t="shared" ref="C3:C21" si="0">CONCATENATE(A3, "-", B3)</f>
         <v>35-5</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -587,45 +599,45 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>40-2</v>
+        <v>39-1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>40-4</v>
+        <v>39-2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6</v>
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>40-6</v>
+        <v>39-3</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
@@ -633,31 +645,76 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>41-3</v>
+        <v>40-2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>40-4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>40-6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>41-3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>41-4</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
